--- a/sofaaudit/output/nosales.xlsx
+++ b/sofaaudit/output/nosales.xlsx
@@ -14,57 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>column_name</t>
   </si>
   <si>
     <t>0251_20131024_SOFA_SISTER</t>
-  </si>
-  <si>
-    <t>0337_20140428_SOFA_TELECOINDIOZINHO</t>
-  </si>
-  <si>
-    <t>422_SOFA_NORWEGIANWOOD</t>
-  </si>
-  <si>
-    <t>0280_20140114_SOFA_REACHME</t>
-  </si>
-  <si>
-    <t>0514_20142611_SOFA_APEDRADEPACIENCIA</t>
-  </si>
-  <si>
-    <t>0539_20140912_SOFA_DUDEWHEREISMYDOG</t>
-  </si>
-  <si>
-    <t>0518_20142611_SOFA_UMNOVODUETO</t>
-  </si>
-  <si>
-    <t>0517_20142611_SOFA_STRETCH</t>
-  </si>
-  <si>
-    <t>0520_20142611_SOFA_UMAPROMESSA</t>
-  </si>
-  <si>
-    <t>0515_20142611_SOFA_LIBERTEMANGELA</t>
-  </si>
-  <si>
-    <t>MADEINCHINA_SOFA_20150107_ 0541</t>
-  </si>
-  <si>
-    <t>0521_20142611_SOFA_ATTILAMARCEL</t>
-  </si>
-  <si>
-    <t>0507_20141111_SOFA_AWALKWITHTHETOMBSTONES</t>
-  </si>
-  <si>
-    <t>0502_20142010_SOFA_THEBESTOFFER</t>
-  </si>
-  <si>
-    <t>0508_20141111_SOFA_INDARKNESS</t>
-  </si>
-  <si>
-    <t>TRINTA_SOFA_20150130_0557</t>
   </si>
 </sst>
 </file>
@@ -123,12 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,160 +392,8 @@
       <c r="A2" s="1">
         <v>147</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>203</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>268</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>296</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>297</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>298</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>299</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>300</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>301</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>302</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>303</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>304</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>385</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>387</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>483</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>485</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>486</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>487</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>488</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>507</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
